--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed5/result_data_KNN.xlsx
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.004</v>
+        <v>-10.984</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.362</v>
+        <v>-13.584</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.568</v>
+        <v>-12.703</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.944</v>
+        <v>-14.464</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.04</v>
+        <v>-12.705</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.752</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.906</v>
+        <v>-11.595</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.128</v>
+        <v>-11.038</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.258</v>
+        <v>-11.555</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.918</v>
+        <v>-10.98</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.832</v>
+        <v>-12.715</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
